--- a/data analysis/analysis after annotation/t5 - analysis after annotation.xlsx
+++ b/data analysis/analysis after annotation/t5 - analysis after annotation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David-PC\SkyDrive\thesis report\data analysis\analysis after annotation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\MASc\data analysis\analysis after annotation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2648" windowHeight="5685" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2655" windowHeight="5685"/>
   </bookViews>
   <sheets>
     <sheet name="t5-s1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="377">
   <si>
     <t>P gesture</t>
   </si>
@@ -1160,6 +1160,9 @@
   </si>
   <si>
     <t>01:32.473</t>
+  </si>
+  <si>
+    <t>02:41.258</t>
   </si>
 </sst>
 </file>
@@ -1481,18 +1484,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:A33"/>
+      <selection pane="topRight" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1500,7 +1503,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -1508,7 +1511,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1546,7 +1549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1554,7 +1557,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1592,7 +1595,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1627,7 +1630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1644,7 +1647,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1682,7 +1685,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1702,12 +1705,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -1727,17 +1730,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1760,7 +1763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1783,7 +1786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1791,7 +1794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1799,7 +1802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -1837,7 +1840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1872,7 +1875,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1907,7 +1910,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1942,7 +1945,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -1977,7 +1980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -2009,7 +2012,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -2017,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -2052,7 +2055,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -2087,7 +2090,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -2110,7 +2113,7 @@
         <v>65</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>44</v>
+        <v>376</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>44</v>
@@ -2122,7 +2125,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -2157,7 +2160,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -2192,7 +2195,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -2227,7 +2230,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -2262,7 +2265,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -2297,7 +2300,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -2317,13 +2320,13 @@
       <selection pane="topRight" sqref="A1:A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -2331,7 +2334,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -2339,7 +2342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2368,7 +2371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2376,7 +2379,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2405,7 +2408,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -2431,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2442,7 +2445,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -2471,7 +2474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -2497,12 +2500,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -2528,17 +2531,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -2564,7 +2567,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -2590,12 +2593,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -2603,7 +2606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -2632,7 +2635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -2658,7 +2661,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -2684,7 +2687,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -2710,7 +2713,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -2736,7 +2739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -2762,7 +2765,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -2773,7 +2776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -2799,7 +2802,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -2825,7 +2828,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -2851,7 +2854,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -2877,7 +2880,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -2903,7 +2906,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -2929,7 +2932,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -2955,7 +2958,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -2981,7 +2984,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -2998,18 +3001,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" sqref="A1:A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -3017,7 +3020,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -3025,7 +3028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3066,7 +3069,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3074,7 +3077,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3115,7 +3118,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -3144,7 +3147,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -3155,7 +3158,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -3196,7 +3199,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -3231,12 +3234,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -3271,17 +3274,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -3307,7 +3310,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -3333,12 +3336,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -3346,7 +3349,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -3387,7 +3390,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -3425,7 +3428,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -3463,7 +3466,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -3501,7 +3504,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -3536,7 +3539,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -3568,7 +3571,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -3579,7 +3582,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -3617,7 +3620,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -3655,7 +3658,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -3693,7 +3696,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -3731,7 +3734,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -3769,7 +3772,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -3807,7 +3810,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -3845,7 +3848,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -3883,7 +3886,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -3905,13 +3908,13 @@
       <selection pane="topRight" sqref="A1:A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -3919,7 +3922,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -3927,7 +3930,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3956,7 +3959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3964,7 +3967,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3993,7 +3996,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -4016,7 +4019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -4027,7 +4030,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -4056,7 +4059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -4073,12 +4076,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -4095,7 +4098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -4103,12 +4106,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -4131,7 +4134,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -4154,12 +4157,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -4170,7 +4173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -4199,7 +4202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -4225,7 +4228,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -4251,7 +4254,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -4277,7 +4280,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -4300,7 +4303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -4320,7 +4323,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -4328,7 +4331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -4354,7 +4357,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -4380,7 +4383,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -4406,7 +4409,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -4432,7 +4435,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -4458,7 +4461,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -4484,7 +4487,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -4510,7 +4513,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -4536,7 +4539,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -4558,13 +4561,13 @@
       <selection pane="topRight" sqref="A1:A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -4572,7 +4575,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -4580,7 +4583,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -4633,7 +4636,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -4641,7 +4644,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -4694,7 +4697,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -4738,7 +4741,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -4749,7 +4752,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -4802,7 +4805,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -4822,12 +4825,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -4850,7 +4853,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -4858,7 +4861,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -4866,7 +4869,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -4910,7 +4913,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -4954,7 +4957,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -4962,7 +4965,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -4970,7 +4973,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -5020,7 +5023,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -5070,7 +5073,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -5120,7 +5123,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -5170,7 +5173,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -5220,7 +5223,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -5258,7 +5261,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -5287,7 +5290,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -5337,7 +5340,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -5387,7 +5390,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -5437,7 +5440,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -5487,7 +5490,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -5537,7 +5540,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -5587,7 +5590,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -5637,7 +5640,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -5687,7 +5690,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -5709,13 +5712,13 @@
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -5723,7 +5726,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -5731,7 +5734,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -5775,7 +5778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -5783,7 +5786,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -5827,7 +5830,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -5868,7 +5871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -5888,7 +5891,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -5932,7 +5935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -5958,12 +5961,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -5989,17 +5992,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -6034,7 +6037,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -6069,12 +6072,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -6085,7 +6088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -6129,7 +6132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -6170,7 +6173,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -6211,7 +6214,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -6252,7 +6255,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -6293,7 +6296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -6328,7 +6331,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -6351,7 +6354,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -6392,7 +6395,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -6433,7 +6436,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -6474,7 +6477,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -6515,7 +6518,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -6556,7 +6559,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -6597,7 +6600,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -6638,7 +6641,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -6679,7 +6682,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -6701,13 +6704,13 @@
       <selection pane="topRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -6715,7 +6718,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -6723,7 +6726,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -6764,7 +6767,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -6772,7 +6775,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -6813,7 +6816,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -6848,7 +6851,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -6862,7 +6865,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -6900,7 +6903,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -6920,12 +6923,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -6945,17 +6948,17 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -6990,7 +6993,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -7025,12 +7028,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -7038,7 +7041,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -7073,7 +7076,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -7108,7 +7111,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -7143,7 +7146,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -7178,7 +7181,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -7216,7 +7219,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -7251,7 +7254,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -7262,7 +7265,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -7300,7 +7303,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -7338,7 +7341,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -7376,7 +7379,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -7414,7 +7417,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -7452,7 +7455,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -7490,7 +7493,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -7528,7 +7531,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -7566,7 +7569,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -7583,18 +7586,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -7602,7 +7605,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -7610,7 +7613,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -7654,7 +7657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -7662,7 +7665,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -7706,7 +7709,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -7744,7 +7747,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -7755,7 +7758,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -7796,7 +7799,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -7819,12 +7822,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -7847,17 +7850,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -7889,7 +7892,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -7921,7 +7924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -7929,7 +7932,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -7940,7 +7943,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -7981,7 +7984,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -8022,7 +8025,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -8063,7 +8066,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -8104,7 +8107,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -8145,7 +8148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -8180,7 +8183,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -8200,7 +8203,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -8241,7 +8244,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -8282,7 +8285,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -8323,7 +8326,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -8364,7 +8367,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -8405,7 +8408,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -8446,7 +8449,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -8487,7 +8490,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -8528,7 +8531,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -8550,13 +8553,13 @@
       <selection pane="topRight" sqref="A1:A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -8564,7 +8567,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -8572,7 +8575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -8616,7 +8619,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -8624,7 +8627,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -8668,7 +8671,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -8700,7 +8703,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -8723,7 +8726,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -8767,7 +8770,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -8775,12 +8778,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -8788,17 +8791,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -8839,7 +8842,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -8880,7 +8883,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -8888,7 +8891,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -8896,7 +8899,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -8937,7 +8940,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -8978,7 +8981,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -9019,7 +9022,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -9060,7 +9063,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -9101,7 +9104,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -9139,7 +9142,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -9156,7 +9159,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -9197,7 +9200,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -9238,7 +9241,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -9279,7 +9282,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -9320,7 +9323,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -9361,7 +9364,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
@@ -9402,7 +9405,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
@@ -9443,7 +9446,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -9484,7 +9487,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
